--- a/Test Scenarios and TestCases.xlsx
+++ b/Test Scenarios and TestCases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="914" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="914" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Vesion History" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="206">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -690,6 +690,21 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>TC_RF_026</t>
+  </si>
+  <si>
+    <t>Verify that there is only one surah under surah title</t>
+  </si>
+  <si>
+    <t>Click on the Al Quran Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There should be only one surah content under one surah title. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are multiple surah content under one surah title. </t>
   </si>
 </sst>
 </file>
@@ -1046,6 +1061,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1057,15 +1081,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1419,7 +1434,7 @@
     </row>
     <row r="9" spans="7:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="G9" s="3"/>
-      <c r="H9" s="40" t="s">
+      <c r="H9" s="43" t="s">
         <v>6</v>
       </c>
       <c r="I9" s="10" t="s">
@@ -1429,25 +1444,25 @@
     </row>
     <row r="10" spans="7:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="G10" s="3"/>
-      <c r="H10" s="41"/>
+      <c r="H10" s="44"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
     </row>
     <row r="11" spans="7:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="G11" s="3"/>
-      <c r="H11" s="41"/>
+      <c r="H11" s="44"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
     </row>
     <row r="12" spans="7:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="G12" s="3"/>
-      <c r="H12" s="41"/>
+      <c r="H12" s="44"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
     </row>
     <row r="13" spans="7:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="G13" s="3"/>
-      <c r="H13" s="42"/>
+      <c r="H13" s="45"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
     </row>
@@ -1464,8 +1479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1508,7 +1523,7 @@
       <c r="A6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="46">
+      <c r="B6" s="42">
         <v>45271</v>
       </c>
     </row>
@@ -1537,7 +1552,7 @@
         <v>25</v>
       </c>
       <c r="C11" s="31">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1558,7 +1573,7 @@
       <c r="B13" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="44">
+      <c r="C13" s="40">
         <v>8</v>
       </c>
     </row>
@@ -1569,7 +1584,7 @@
       <c r="B14" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="C14" s="44">
+      <c r="C14" s="40">
         <v>2</v>
       </c>
     </row>
@@ -1580,7 +1595,7 @@
       <c r="B15" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="C15" s="44">
+      <c r="C15" s="40">
         <v>2</v>
       </c>
     </row>
@@ -1591,7 +1606,7 @@
       <c r="B16" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="C16" s="44">
+      <c r="C16" s="40">
         <v>2</v>
       </c>
     </row>
@@ -1602,7 +1617,7 @@
       <c r="B17" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="41" t="s">
         <v>200</v>
       </c>
     </row>
@@ -1613,7 +1628,7 @@
       <c r="B18" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="C18" s="44">
+      <c r="C18" s="40">
         <v>2</v>
       </c>
     </row>
@@ -1739,10 +1754,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView topLeftCell="D29" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1790,10 +1805,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="43"/>
+      <c r="B2" s="46"/>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
@@ -2665,7 +2680,7 @@
         <v>171</v>
       </c>
       <c r="I31" s="28" t="s">
-        <v>52</v>
+        <v>152</v>
       </c>
       <c r="J31" s="27"/>
     </row>
@@ -2695,28 +2710,70 @@
         <v>176</v>
       </c>
       <c r="I32" s="28" t="s">
-        <v>52</v>
+        <v>152</v>
       </c>
       <c r="J32" s="27"/>
     </row>
-    <row r="33" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A33" s="35"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="38"/>
+    <row r="33" spans="1:10" ht="54" x14ac:dyDescent="0.25">
+      <c r="A33" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="E33" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="H33" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="I33" s="38" t="s">
+        <v>100</v>
+      </c>
       <c r="J33" s="39"/>
+    </row>
+    <row r="34" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A34" s="35"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="39"/>
+    </row>
+    <row r="35" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A35" s="35"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:B2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="I4:I33">
+  <conditionalFormatting sqref="I4:I35">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",I4)))</formula>
     </cfRule>
@@ -2731,7 +2788,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I35">
       <formula1>"PASS, FAIL, Blocked, Not Tested"</formula1>
     </dataValidation>
   </dataValidations>
